--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Wnt4-Fzd2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Wnt4-Fzd2.xlsx
@@ -537,46 +537,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.285322</v>
+        <v>1.646881333333333</v>
       </c>
       <c r="H2">
-        <v>9.855966</v>
+        <v>4.940644</v>
       </c>
       <c r="I2">
-        <v>0.4533344065718998</v>
+        <v>0.3367300927127475</v>
       </c>
       <c r="J2">
-        <v>0.4533344065718997</v>
+        <v>0.3367300927127475</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.08106100000000001</v>
+        <v>0.1503136666666667</v>
       </c>
       <c r="N2">
-        <v>0.243183</v>
+        <v>0.450941</v>
       </c>
       <c r="O2">
-        <v>0.004404799763312406</v>
+        <v>0.008029526741163598</v>
       </c>
       <c r="P2">
-        <v>0.004404799763312405</v>
+        <v>0.008029526741163598</v>
       </c>
       <c r="Q2">
-        <v>0.2663114866420001</v>
+        <v>0.2475487717782222</v>
       </c>
       <c r="R2">
-        <v>2.396803379778</v>
+        <v>2.227938946004</v>
       </c>
       <c r="S2">
-        <v>0.001996847286769274</v>
+        <v>0.002703783283991504</v>
       </c>
       <c r="T2">
-        <v>0.001996847286769273</v>
+        <v>0.002703783283991504</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.285322</v>
+        <v>1.646881333333333</v>
       </c>
       <c r="H3">
-        <v>9.855966</v>
+        <v>4.940644</v>
       </c>
       <c r="I3">
-        <v>0.4533344065718998</v>
+        <v>0.3367300927127475</v>
       </c>
       <c r="J3">
-        <v>0.4533344065718997</v>
+        <v>0.3367300927127475</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>47.114695</v>
       </c>
       <c r="O3">
-        <v>0.8533935241547975</v>
+        <v>0.8389317081486641</v>
       </c>
       <c r="P3">
-        <v>0.8533935241547974</v>
+        <v>0.8389317081486641</v>
       </c>
       <c r="Q3">
-        <v>51.59564800226334</v>
+        <v>25.86410390706444</v>
       </c>
       <c r="R3">
-        <v>464.36083202037</v>
+        <v>232.77693516358</v>
       </c>
       <c r="S3">
-        <v>0.3868726468450174</v>
+        <v>0.2824935518645633</v>
       </c>
       <c r="T3">
-        <v>0.3868726468450173</v>
+        <v>0.2824935518645633</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.285322</v>
+        <v>1.646881333333333</v>
       </c>
       <c r="H4">
-        <v>9.855966</v>
+        <v>4.940644</v>
       </c>
       <c r="I4">
-        <v>0.4533344065718998</v>
+        <v>0.3367300927127475</v>
       </c>
       <c r="J4">
-        <v>0.4533344065718997</v>
+        <v>0.3367300927127475</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.583925666666667</v>
+        <v>2.758466666666667</v>
       </c>
       <c r="N4">
-        <v>7.751777000000001</v>
+        <v>8.275399999999999</v>
       </c>
       <c r="O4">
-        <v>0.1404087682726611</v>
+        <v>0.1473530807662759</v>
       </c>
       <c r="P4">
-        <v>0.1404087682726611</v>
+        <v>0.1473530807662759</v>
       </c>
       <c r="Q4">
-        <v>8.489027839064669</v>
+        <v>4.542867261955555</v>
       </c>
       <c r="R4">
-        <v>76.40125055158201</v>
+        <v>40.8858053576</v>
       </c>
       <c r="S4">
-        <v>0.06365212564237821</v>
+        <v>0.04961821654793706</v>
       </c>
       <c r="T4">
-        <v>0.0636521256423782</v>
+        <v>0.04961821654793706</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,46 +723,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.285322</v>
+        <v>1.646881333333333</v>
       </c>
       <c r="H5">
-        <v>9.855966</v>
+        <v>4.940644</v>
       </c>
       <c r="I5">
-        <v>0.4533344065718998</v>
+        <v>0.3367300927127475</v>
       </c>
       <c r="J5">
-        <v>0.4533344065718997</v>
+        <v>0.3367300927127475</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.03299466666666667</v>
+        <v>0.1064366666666667</v>
       </c>
       <c r="N5">
-        <v>0.09898399999999999</v>
+        <v>0.31931</v>
       </c>
       <c r="O5">
-        <v>0.001792907809228914</v>
+        <v>0.005685684343896315</v>
       </c>
       <c r="P5">
-        <v>0.001792907809228914</v>
+        <v>0.005685684343896314</v>
       </c>
       <c r="Q5">
-        <v>0.1083981042826667</v>
+        <v>0.1752885595155555</v>
       </c>
       <c r="R5">
-        <v>0.9755829385439999</v>
+        <v>1.57759703564</v>
       </c>
       <c r="S5">
-        <v>0.0008127867977349147</v>
+        <v>0.001914541016255623</v>
       </c>
       <c r="T5">
-        <v>0.0008127867977349145</v>
+        <v>0.001914541016255623</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,40 +791,40 @@
         <v>4.600869</v>
       </c>
       <c r="I6">
-        <v>0.2116212878402838</v>
+        <v>0.3135726931406526</v>
       </c>
       <c r="J6">
-        <v>0.2116212878402837</v>
+        <v>0.3135726931406525</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.08106100000000001</v>
+        <v>0.1503136666666667</v>
       </c>
       <c r="N6">
-        <v>0.243183</v>
+        <v>0.450941</v>
       </c>
       <c r="O6">
-        <v>0.004404799763312406</v>
+        <v>0.008029526741163598</v>
       </c>
       <c r="P6">
-        <v>0.004404799763312405</v>
+        <v>0.008029526741163598</v>
       </c>
       <c r="Q6">
-        <v>0.124317014003</v>
+        <v>0.2305244964143334</v>
       </c>
       <c r="R6">
-        <v>1.118853126027</v>
+        <v>2.074720467729</v>
       </c>
       <c r="S6">
-        <v>0.0009321493985907483</v>
+        <v>0.002517840324871557</v>
       </c>
       <c r="T6">
-        <v>0.0009321493985907479</v>
+        <v>0.002517840324871556</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>4.600869</v>
       </c>
       <c r="I7">
-        <v>0.2116212878402838</v>
+        <v>0.3135726931406526</v>
       </c>
       <c r="J7">
-        <v>0.2116212878402837</v>
+        <v>0.3135726931406525</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>47.114695</v>
       </c>
       <c r="O7">
-        <v>0.8533935241547975</v>
+        <v>0.8389317081486641</v>
       </c>
       <c r="P7">
-        <v>0.8533935241547974</v>
+        <v>0.8389317081486641</v>
       </c>
       <c r="Q7">
         <v>24.08539329666167</v>
@@ -883,10 +883,10 @@
         <v>216.768539669955</v>
       </c>
       <c r="S7">
-        <v>0.1805962366161966</v>
+        <v>0.2630660750852645</v>
       </c>
       <c r="T7">
-        <v>0.1805962366161965</v>
+        <v>0.2630660750852645</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>4.600869</v>
       </c>
       <c r="I8">
-        <v>0.2116212878402838</v>
+        <v>0.3135726931406526</v>
       </c>
       <c r="J8">
-        <v>0.2116212878402837</v>
+        <v>0.3135726931406525</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.583925666666667</v>
+        <v>2.758466666666667</v>
       </c>
       <c r="N8">
-        <v>7.751777000000001</v>
+        <v>8.275399999999999</v>
       </c>
       <c r="O8">
-        <v>0.1404087682726611</v>
+        <v>0.1473530807662759</v>
       </c>
       <c r="P8">
-        <v>0.1404087682726611</v>
+        <v>0.1473530807662759</v>
       </c>
       <c r="Q8">
-        <v>3.962767832690334</v>
+        <v>4.230447924733334</v>
       </c>
       <c r="R8">
-        <v>35.664910494213</v>
+        <v>38.0740313226</v>
       </c>
       <c r="S8">
-        <v>0.02971348436592851</v>
+        <v>0.04620590237845323</v>
       </c>
       <c r="T8">
-        <v>0.02971348436592851</v>
+        <v>0.04620590237845322</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,40 +977,40 @@
         <v>4.600869</v>
       </c>
       <c r="I9">
-        <v>0.2116212878402838</v>
+        <v>0.3135726931406526</v>
       </c>
       <c r="J9">
-        <v>0.2116212878402837</v>
+        <v>0.3135726931406525</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.03299466666666667</v>
+        <v>0.1064366666666667</v>
       </c>
       <c r="N9">
-        <v>0.09898399999999999</v>
+        <v>0.31931</v>
       </c>
       <c r="O9">
-        <v>0.001792907809228914</v>
+        <v>0.005685684343896315</v>
       </c>
       <c r="P9">
-        <v>0.001792907809228914</v>
+        <v>0.005685684343896314</v>
       </c>
       <c r="Q9">
-        <v>0.05060137967733334</v>
+        <v>0.1632337200433334</v>
       </c>
       <c r="R9">
-        <v>0.455412417096</v>
+        <v>1.46910348039</v>
       </c>
       <c r="S9">
-        <v>0.0003794174595679246</v>
+        <v>0.001782875352063212</v>
       </c>
       <c r="T9">
-        <v>0.0003794174595679245</v>
+        <v>0.001782875352063211</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,46 +1033,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.038885</v>
+        <v>1.115861333333333</v>
       </c>
       <c r="H10">
-        <v>3.116655</v>
+        <v>3.347584</v>
       </c>
       <c r="I10">
-        <v>0.1433534718884322</v>
+        <v>0.2281549269050169</v>
       </c>
       <c r="J10">
-        <v>0.1433534718884322</v>
+        <v>0.2281549269050168</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.08106100000000001</v>
+        <v>0.1503136666666667</v>
       </c>
       <c r="N10">
-        <v>0.243183</v>
+        <v>0.450941</v>
       </c>
       <c r="O10">
-        <v>0.004404799763312406</v>
+        <v>0.008029526741163598</v>
       </c>
       <c r="P10">
-        <v>0.004404799763312405</v>
+        <v>0.008029526741163598</v>
       </c>
       <c r="Q10">
-        <v>0.08421305698499999</v>
+        <v>0.1677292085048889</v>
       </c>
       <c r="R10">
-        <v>0.757917512865</v>
+        <v>1.509562876544</v>
       </c>
       <c r="S10">
-        <v>0.0006314433390441778</v>
+        <v>0.001831976086712059</v>
       </c>
       <c r="T10">
-        <v>0.0006314433390441777</v>
+        <v>0.001831976086712059</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.038885</v>
+        <v>1.115861333333333</v>
       </c>
       <c r="H11">
-        <v>3.116655</v>
+        <v>3.347584</v>
       </c>
       <c r="I11">
-        <v>0.1433534718884322</v>
+        <v>0.2281549269050169</v>
       </c>
       <c r="J11">
-        <v>0.1433534718884322</v>
+        <v>0.2281549269050168</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>47.114695</v>
       </c>
       <c r="O11">
-        <v>0.8533935241547975</v>
+        <v>0.8389317081486641</v>
       </c>
       <c r="P11">
-        <v>0.8533935241547974</v>
+        <v>0.8389317081486641</v>
       </c>
       <c r="Q11">
-        <v>16.315583305025</v>
+        <v>17.52448879409778</v>
       </c>
       <c r="R11">
-        <v>146.840249745225</v>
+        <v>157.72039914688</v>
       </c>
       <c r="S11">
-        <v>0.1223369245746949</v>
+        <v>0.1914064025509594</v>
       </c>
       <c r="T11">
-        <v>0.1223369245746949</v>
+        <v>0.1914064025509594</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.038885</v>
+        <v>1.115861333333333</v>
       </c>
       <c r="H12">
-        <v>3.116655</v>
+        <v>3.347584</v>
       </c>
       <c r="I12">
-        <v>0.1433534718884322</v>
+        <v>0.2281549269050169</v>
       </c>
       <c r="J12">
-        <v>0.1433534718884322</v>
+        <v>0.2281549269050168</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.583925666666667</v>
+        <v>2.758466666666667</v>
       </c>
       <c r="N12">
-        <v>7.751777000000001</v>
+        <v>8.275399999999999</v>
       </c>
       <c r="O12">
-        <v>0.1404087682726611</v>
+        <v>0.1473530807662759</v>
       </c>
       <c r="P12">
-        <v>0.1404087682726611</v>
+        <v>0.1473530807662759</v>
       </c>
       <c r="Q12">
-        <v>2.684401616215</v>
+        <v>3.078066292622222</v>
       </c>
       <c r="R12">
-        <v>24.159614545935</v>
+        <v>27.7025966336</v>
       </c>
       <c r="S12">
-        <v>0.02012808441546432</v>
+        <v>0.03361933137145873</v>
       </c>
       <c r="T12">
-        <v>0.02012808441546432</v>
+        <v>0.03361933137145872</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,46 +1219,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.038885</v>
+        <v>1.115861333333333</v>
       </c>
       <c r="H13">
-        <v>3.116655</v>
+        <v>3.347584</v>
       </c>
       <c r="I13">
-        <v>0.1433534718884322</v>
+        <v>0.2281549269050169</v>
       </c>
       <c r="J13">
-        <v>0.1433534718884322</v>
+        <v>0.2281549269050168</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.03299466666666667</v>
+        <v>0.1064366666666667</v>
       </c>
       <c r="N13">
-        <v>0.09898399999999999</v>
+        <v>0.31931</v>
       </c>
       <c r="O13">
-        <v>0.001792907809228914</v>
+        <v>0.005685684343896315</v>
       </c>
       <c r="P13">
-        <v>0.001792907809228914</v>
+        <v>0.005685684343896314</v>
       </c>
       <c r="Q13">
-        <v>0.03427766427999999</v>
+        <v>0.1187685607822222</v>
       </c>
       <c r="R13">
-        <v>0.3084989785199999</v>
+        <v>1.06891704704</v>
       </c>
       <c r="S13">
-        <v>0.0002570195592288477</v>
+        <v>0.001297216895886663</v>
       </c>
       <c r="T13">
-        <v>0.0002570195592288477</v>
+        <v>0.001297216895886662</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,46 +1281,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.389186666666667</v>
+        <v>0.5944396666666667</v>
       </c>
       <c r="H14">
-        <v>4.16756</v>
+        <v>1.783319</v>
       </c>
       <c r="I14">
-        <v>0.1916908336993843</v>
+        <v>0.1215422872415831</v>
       </c>
       <c r="J14">
-        <v>0.1916908336993843</v>
+        <v>0.1215422872415831</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.08106100000000001</v>
+        <v>0.1503136666666667</v>
       </c>
       <c r="N14">
-        <v>0.243183</v>
+        <v>0.450941</v>
       </c>
       <c r="O14">
-        <v>0.004404799763312406</v>
+        <v>0.008029526741163598</v>
       </c>
       <c r="P14">
-        <v>0.004404799763312405</v>
+        <v>0.008029526741163598</v>
       </c>
       <c r="Q14">
-        <v>0.1126088603866667</v>
+        <v>0.08935240590877778</v>
       </c>
       <c r="R14">
-        <v>1.01347974348</v>
+        <v>0.8041716531790001</v>
       </c>
       <c r="S14">
-        <v>0.0008443597389082058</v>
+        <v>0.000975927045588479</v>
       </c>
       <c r="T14">
-        <v>0.0008443597389082056</v>
+        <v>0.0009759270455884789</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.389186666666667</v>
+        <v>0.5944396666666667</v>
       </c>
       <c r="H15">
-        <v>4.16756</v>
+        <v>1.783319</v>
       </c>
       <c r="I15">
-        <v>0.1916908336993843</v>
+        <v>0.1215422872415831</v>
       </c>
       <c r="J15">
-        <v>0.1916908336993843</v>
+        <v>0.1215422872415831</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>47.114695</v>
       </c>
       <c r="O15">
-        <v>0.8533935241547975</v>
+        <v>0.8389317081486641</v>
       </c>
       <c r="P15">
-        <v>0.8533935241547974</v>
+        <v>0.8389317081486641</v>
       </c>
       <c r="Q15">
-        <v>21.81703536602222</v>
+        <v>9.335614530300555</v>
       </c>
       <c r="R15">
-        <v>196.3533182942</v>
+        <v>84.020530772705</v>
       </c>
       <c r="S15">
-        <v>0.1635877161188888</v>
+        <v>0.1019656786478769</v>
       </c>
       <c r="T15">
-        <v>0.1635877161188888</v>
+        <v>0.1019656786478769</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.389186666666667</v>
+        <v>0.5944396666666667</v>
       </c>
       <c r="H16">
-        <v>4.16756</v>
+        <v>1.783319</v>
       </c>
       <c r="I16">
-        <v>0.1916908336993843</v>
+        <v>0.1215422872415831</v>
       </c>
       <c r="J16">
-        <v>0.1916908336993843</v>
+        <v>0.1215422872415831</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>2.583925666666667</v>
+        <v>2.758466666666667</v>
       </c>
       <c r="N16">
-        <v>7.751777000000001</v>
+        <v>8.275399999999999</v>
       </c>
       <c r="O16">
-        <v>0.1404087682726611</v>
+        <v>0.1473530807662759</v>
       </c>
       <c r="P16">
-        <v>0.1404087682726611</v>
+        <v>0.1473530807662759</v>
       </c>
       <c r="Q16">
-        <v>3.589555083791111</v>
+        <v>1.639742005844445</v>
       </c>
       <c r="R16">
-        <v>32.30599575412</v>
+        <v>14.7576780526</v>
       </c>
       <c r="S16">
-        <v>0.02691507384889007</v>
+        <v>0.0179096304684269</v>
       </c>
       <c r="T16">
-        <v>0.02691507384889007</v>
+        <v>0.0179096304684269</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,46 +1467,46 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.389186666666667</v>
+        <v>0.5944396666666667</v>
       </c>
       <c r="H17">
-        <v>4.16756</v>
+        <v>1.783319</v>
       </c>
       <c r="I17">
-        <v>0.1916908336993843</v>
+        <v>0.1215422872415831</v>
       </c>
       <c r="J17">
-        <v>0.1916908336993843</v>
+        <v>0.1215422872415831</v>
       </c>
       <c r="K17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M17">
-        <v>0.03299466666666667</v>
+        <v>0.1064366666666667</v>
       </c>
       <c r="N17">
-        <v>0.09898399999999999</v>
+        <v>0.31931</v>
       </c>
       <c r="O17">
-        <v>0.001792907809228914</v>
+        <v>0.005685684343896315</v>
       </c>
       <c r="P17">
-        <v>0.001792907809228914</v>
+        <v>0.005685684343896314</v>
       </c>
       <c r="Q17">
-        <v>0.04583575100444444</v>
+        <v>0.06327017665444444</v>
       </c>
       <c r="R17">
-        <v>0.4125217590399999</v>
+        <v>0.56943158989</v>
       </c>
       <c r="S17">
-        <v>0.0003436839926972273</v>
+        <v>0.0006910510796908181</v>
       </c>
       <c r="T17">
-        <v>0.0003436839926972272</v>
+        <v>0.0006910510796908179</v>
       </c>
     </row>
   </sheetData>
